--- a/level-2/uri/phase-2-5/uri-phase-2-5.xlsx
+++ b/level-2/uri/phase-2-5/uri-phase-2-5.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CA2793-38F5-46C1-B395-04B27ECCCEA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD6812-9CB4-470A-977A-40D2FA96C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,24 @@
     <sheet name="uri level 2-5" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="147">
   <si>
     <t>Problem Link</t>
   </si>
@@ -444,6 +457,18 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/problems/view/2525</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/2225</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1489</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/2652</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1562</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1359,36 +1384,36 @@
       <c r="A3" s="20"/>
       <c r="B3" s="16"/>
       <c r="C3" s="4" t="e">
-        <f>AVERAGE(C4:C184)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C188)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="4" t="e">
-        <f>AVERAGE(D4:D184)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="4" t="e">
-        <f>AVERAGE(E4:E184)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="4" t="e">
-        <f>AVERAGE(F4:F184)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="4" t="e">
-        <f>AVERAGE(G4:G184)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="4">
-        <f>AVERAGE(H4:H184)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>COUNTA(I4:I834)</f>
+        <f>COUNTA(I4:I838)</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>COUNTA(J4:J954)</f>
-        <v>126</v>
+        <f>COUNTA(J4:J958)</f>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1404,7 +1429,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H35" si="0">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="9"/>
@@ -1425,7 +1450,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -1445,7 +1470,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="9"/>
@@ -1466,7 +1491,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="9"/>
@@ -1487,7 +1512,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="9"/>
@@ -1508,7 +1533,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="9"/>
@@ -1529,7 +1554,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="9"/>
@@ -1550,7 +1575,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="9"/>
@@ -1571,7 +1596,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="9"/>
@@ -1592,7 +1617,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="9"/>
@@ -1613,7 +1638,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
@@ -1634,7 +1659,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="9"/>
@@ -1655,7 +1680,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
@@ -1676,7 +1701,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="9"/>
@@ -1692,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="13" t="s">
@@ -1707,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="13" t="s">
@@ -1722,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="13" t="s">
@@ -1737,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="13" t="s">
@@ -1752,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="13" t="s">
@@ -1767,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="13" t="s">
@@ -1782,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="13" t="s">
@@ -1797,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="13" t="s">
@@ -1812,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="13" t="s">
@@ -1827,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="13" t="s">
@@ -1842,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="13" t="s">
@@ -1857,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="13" t="s">
@@ -1872,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="13" t="s">
@@ -1887,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="13" t="s">
@@ -1907,7 +1932,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="9"/>
@@ -1928,7 +1953,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="9"/>
@@ -1949,7 +1974,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="9"/>
@@ -1970,7 +1995,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="9"/>
@@ -1991,7 +2016,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H67" si="1">SUM(C36:G36)</f>
+        <f t="shared" ref="H36:H67" si="2">SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="9"/>
@@ -2012,7 +2037,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="9"/>
@@ -2028,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38" s="13" t="s">
@@ -2043,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39" s="13" t="s">
@@ -2058,7 +2083,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40" s="13" t="s">
@@ -2073,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41" s="13" t="s">
@@ -2088,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42" s="13" t="s">
@@ -2103,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43" s="13" t="s">
@@ -2118,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="13" t="s">
@@ -2133,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45" s="13" t="s">
@@ -2148,7 +2173,7 @@
         <v>10</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46" s="14" t="s">
@@ -2163,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="14" t="s">
@@ -2183,7 +2208,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I48" s="9"/>
@@ -2204,7 +2229,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I49" s="9"/>
@@ -2220,7 +2245,7 @@
         <v>8</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50" s="14" t="s">
@@ -2235,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="14" t="s">
@@ -2250,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="14" t="s">
@@ -2265,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="H53" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53" s="14" t="s">
@@ -2280,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54" s="14" t="s">
@@ -2295,7 +2320,7 @@
         <v>8</v>
       </c>
       <c r="H55" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55" s="14" t="s">
@@ -2310,7 +2335,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56" s="14" t="s">
@@ -2325,7 +2350,7 @@
         <v>8</v>
       </c>
       <c r="H57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J57" s="14" t="s">
@@ -2340,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="H58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58" s="14" t="s">
@@ -2355,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="H59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59" s="14" t="s">
@@ -2370,7 +2395,7 @@
         <v>8</v>
       </c>
       <c r="H60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60" s="14" t="s">
@@ -2390,7 +2415,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I61" s="9"/>
@@ -2411,7 +2436,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I62" s="9"/>
@@ -2432,7 +2457,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I63" s="9"/>
@@ -2453,7 +2478,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I64" s="9"/>
@@ -2474,7 +2499,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I65" s="9"/>
@@ -2495,7 +2520,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I66" s="9"/>
@@ -2516,7 +2541,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I67" s="9"/>
@@ -2537,7 +2562,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="8">
-        <f t="shared" ref="H68:H99" si="2">SUM(C68:G68)</f>
+        <f t="shared" ref="H68:H71" si="3">SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="9"/>
@@ -2558,7 +2583,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I69" s="9"/>
@@ -2579,7 +2604,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I70" s="9"/>
@@ -2600,7 +2625,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I71" s="9"/>
@@ -2621,7 +2646,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="8">
-        <f>SUM(C72:G72)</f>
+        <f t="shared" ref="H72:H107" si="4">SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="9"/>
@@ -2642,7 +2667,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="8">
-        <f>SUM(C73:G73)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I73" s="9"/>
@@ -2663,7 +2688,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="8">
-        <f>SUM(C74:G74)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J74" s="13" t="s">
@@ -2683,7 +2708,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="8">
-        <f>SUM(C75:G75)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J75" s="13" t="s">
@@ -2703,7 +2728,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="8">
-        <f>SUM(C76:G76)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J76" s="13" t="s">
@@ -2723,7 +2748,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="8">
-        <f>SUM(C77:G77)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J77" s="13" t="s">
@@ -2743,7 +2768,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="8">
-        <f>SUM(C78:G78)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J78" s="13" t="s">
@@ -2763,7 +2788,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="8">
-        <f>SUM(C79:G79)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J79" s="13" t="s">
@@ -2783,7 +2808,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="8">
-        <f>SUM(C80:G80)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J80" s="13" t="s">
@@ -2803,7 +2828,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="8">
-        <f>SUM(C81:G81)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J81" s="13" t="s">
@@ -2823,7 +2848,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="8">
-        <f>SUM(C82:G82)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J82" s="13" t="s">
@@ -2843,7 +2868,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="8">
-        <f>SUM(C83:G83)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J83" s="13" t="s">
@@ -2863,7 +2888,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="8">
-        <f>SUM(C84:G84)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J84" s="13" t="s">
@@ -2883,7 +2908,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="8">
-        <f>SUM(C85:G85)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J85" s="13" t="s">
@@ -2903,7 +2928,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="8">
-        <f>SUM(C86:G86)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J86" s="13" t="s">
@@ -2923,7 +2948,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="8">
-        <f>SUM(C87:G87)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J87" s="13" t="s">
@@ -2943,7 +2968,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="8">
-        <f>SUM(C88:G88)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J88" s="13" t="s">
@@ -2963,7 +2988,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="8">
-        <f>SUM(C89:G89)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J89" s="13" t="s">
@@ -2972,10 +2997,10 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B90" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -2986,16 +3011,16 @@
         <f>SUM(C90:G90)</f>
         <v>0</v>
       </c>
-      <c r="J90" s="13" t="s">
-        <v>102</v>
+      <c r="J90" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B91" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3006,16 +3031,16 @@
         <f>SUM(C91:G91)</f>
         <v>0</v>
       </c>
-      <c r="J91" s="13" t="s">
-        <v>103</v>
+      <c r="J91" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B92" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -3026,16 +3051,16 @@
         <f>SUM(C92:G92)</f>
         <v>0</v>
       </c>
-      <c r="J92" s="13" t="s">
-        <v>104</v>
+      <c r="J92" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B93" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -3046,8 +3071,8 @@
         <f>SUM(C93:G93)</f>
         <v>0</v>
       </c>
-      <c r="J93" s="13" t="s">
-        <v>105</v>
+      <c r="J93" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3063,11 +3088,11 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="8">
-        <f>SUM(C94:G94)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3083,11 +3108,11 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="8">
-        <f>SUM(C95:G95)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3095,7 +3120,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3103,11 +3128,11 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="8">
-        <f>SUM(C96:G96)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3115,7 +3140,7 @@
         <v>101</v>
       </c>
       <c r="B97" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3123,11 +3148,11 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="8">
-        <f>SUM(C97:G97)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3135,7 +3160,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3143,11 +3168,11 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="8">
-        <f>SUM(C98:G98)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3155,7 +3180,7 @@
         <v>101</v>
       </c>
       <c r="B99" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3163,11 +3188,11 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="8">
-        <f>SUM(C99:G99)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3183,11 +3208,11 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="8">
-        <f>SUM(C100:G100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3203,11 +3228,11 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="8">
-        <f>SUM(C101:G101)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3223,11 +3248,11 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="8">
-        <f>SUM(C102:G102)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3243,11 +3268,11 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="8">
-        <f>SUM(C103:G103)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3263,11 +3288,11 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="8">
-        <f>SUM(C104:G104)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3283,11 +3308,11 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="8">
-        <f>SUM(C105:G105)</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="14" t="s">
-        <v>117</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3303,11 +3328,11 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="8">
-        <f>SUM(C106:G106)</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="14" t="s">
-        <v>118</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3323,11 +3348,11 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="8">
-        <f>SUM(C107:G107)</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="14" t="s">
-        <v>119</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3343,11 +3368,11 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="8">
-        <f>SUM(C108:G108)</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="14" t="s">
-        <v>120</v>
+        <f t="shared" ref="H108:H139" si="5">SUM(C108:G108)</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3363,11 +3388,11 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="8">
-        <f>SUM(C109:G109)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3383,11 +3408,11 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="8">
-        <f>SUM(C110:G110)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3403,11 +3428,11 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="8">
-        <f>SUM(C111:G111)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3423,11 +3448,11 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="8">
-        <f>SUM(C112:G112)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3443,11 +3468,11 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="8">
-        <f>SUM(C113:G113)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3463,11 +3488,11 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="8">
-        <f>SUM(C114:G114)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J114" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3483,11 +3508,11 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="8">
-        <f>SUM(C115:G115)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J115" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3503,11 +3528,11 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="8">
-        <f>SUM(C116:G116)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3523,11 +3548,11 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="8">
-        <f>SUM(C117:G117)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J117" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3543,11 +3568,11 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="8">
-        <f>SUM(C118:G118)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J118" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3563,11 +3588,11 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="8">
-        <f>SUM(C119:G119)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J119" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3583,11 +3608,11 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="8">
-        <f>SUM(C120:G120)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3603,11 +3628,11 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="8">
-        <f>SUM(C121:G121)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3623,11 +3648,11 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="8">
-        <f>SUM(C122:G122)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3643,11 +3668,11 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="8">
-        <f>SUM(C123:G123)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3663,19 +3688,19 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="8">
-        <f>SUM(C124:G124)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B125" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -3683,19 +3708,19 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="8">
-        <f>SUM(C125:G125)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B126" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -3703,19 +3728,19 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="8">
-        <f>SUM(C126:G126)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J126" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B127" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3723,19 +3748,19 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="8">
-        <f>SUM(C127:G127)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B128" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3743,11 +3768,11 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="8">
-        <f>SUM(C128:G128)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3763,56 +3788,92 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="8">
-        <f>SUM(C129:G129)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J129" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" s="11">
+        <v>10</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" s="11">
+        <v>10</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" s="11">
+        <v>10</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="11">
+        <v>10</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="10"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="8"/>
-      <c r="J135" s="13"/>
-    </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="10"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="8"/>
-      <c r="J136" s="13"/>
-    </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="10"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="8"/>
-      <c r="J137" s="13"/>
-    </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="10"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="8"/>
-      <c r="J138" s="13"/>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
@@ -3849,7 +3910,7 @@
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
-      <c r="B142" s="12"/>
+      <c r="B142" s="11"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -3860,7 +3921,7 @@
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="B143" s="12"/>
+      <c r="B143" s="11"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -3893,7 +3954,7 @@
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="11"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -3904,7 +3965,7 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="11"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -3915,7 +3976,7 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="12"/>
+      <c r="B148" s="11"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -3926,7 +3987,7 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="12"/>
+      <c r="B149" s="11"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -3959,7 +4020,7 @@
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="11"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -3970,7 +4031,7 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="11"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4014,7 +4075,7 @@
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="12"/>
+      <c r="B157" s="11"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4025,7 +4086,7 @@
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="12"/>
+      <c r="B158" s="11"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4058,7 +4119,7 @@
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="11"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4069,7 +4130,7 @@
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="11"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4080,7 +4141,7 @@
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="12"/>
+      <c r="B163" s="11"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4124,7 +4185,7 @@
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="11"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -4135,7 +4196,7 @@
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="12"/>
+      <c r="B168" s="11"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -4179,7 +4240,7 @@
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="11"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -4190,7 +4251,7 @@
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="12"/>
+      <c r="B173" s="11"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -4201,7 +4262,7 @@
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="12"/>
+      <c r="B174" s="11"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -4234,7 +4295,7 @@
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="11"/>
+      <c r="B177" s="12"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -4245,7 +4306,7 @@
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="11"/>
+      <c r="B178" s="12"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -4255,36 +4316,48 @@
       <c r="J178" s="13"/>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="10"/>
+      <c r="B179" s="11"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="8"/>
+      <c r="J179" s="13"/>
     </row>
     <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="10"/>
+      <c r="B180" s="11"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="8"/>
+      <c r="J180" s="13"/>
     </row>
     <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="10"/>
+      <c r="B181" s="11"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="8"/>
+      <c r="J181" s="13"/>
     </row>
     <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="10"/>
+      <c r="B182" s="11"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="8"/>
+      <c r="J182" s="13"/>
     </row>
     <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="5"/>
@@ -4301,6 +4374,38 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="8"/>
+    </row>
+    <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="8"/>
+    </row>
+    <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="8"/>
+    </row>
+    <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="8"/>
+    </row>
+    <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4325,7 +4430,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J137">
+  <conditionalFormatting sqref="J141">
     <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4360,22 +4465,22 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J139">
+  <conditionalFormatting sqref="J143">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J163:J168">
+  <conditionalFormatting sqref="J167:J172">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J152">
+  <conditionalFormatting sqref="J156">
     <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J148">
+  <conditionalFormatting sqref="J152">
     <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4400,12 +4505,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J154">
+  <conditionalFormatting sqref="J158">
     <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J177">
+  <conditionalFormatting sqref="J181">
     <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4470,42 +4575,42 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J94:J96 J98:J101">
+  <conditionalFormatting sqref="J98:J100 J102:J105">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J97">
+  <conditionalFormatting sqref="J101">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J102">
+  <conditionalFormatting sqref="J106">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J94:J102">
+  <conditionalFormatting sqref="J98:J106">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J103">
+  <conditionalFormatting sqref="J107">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J103">
+  <conditionalFormatting sqref="J107">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J104">
+  <conditionalFormatting sqref="J108">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J104">
+  <conditionalFormatting sqref="J108">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/level-2/uri/phase-2-5/uri-phase-2-5.xlsx
+++ b/level-2/uri/phase-2-5/uri-phase-2-5.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD6812-9CB4-470A-977A-40D2FA96C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA08125-9E02-4512-8296-E153FE02A9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="uri level 2-5" sheetId="14" r:id="rId1"/>
+    <sheet name="uri 2-5" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="144">
   <si>
     <t>Problem Link</t>
   </si>
@@ -426,21 +426,6 @@
     <t>https://www.beecrowd.com.br/judge/en/problems/view/1784</t>
   </si>
   <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1777</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1687</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1412</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/2934</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1892</t>
-  </si>
-  <si>
     <t>Geometry</t>
   </si>
   <si>
@@ -469,6 +454,12 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/problems/view/1562</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1335</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1386</t>
   </si>
 </sst>
 </file>
@@ -709,231 +700,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1317,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1384,36 +1151,36 @@
       <c r="A3" s="20"/>
       <c r="B3" s="16"/>
       <c r="C3" s="4" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C188)</f>
+        <f>AVERAGE(C4:C185)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D185)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E185)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F185)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G185)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H185)</f>
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>COUNTA(I4:I838)</f>
+        <f>COUNTA(I4:I835)</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>COUNTA(J4:J958)</f>
-        <v>130</v>
+        <f>COUNTA(J4:J835)</f>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1429,7 +1196,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
+        <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="9"/>
@@ -1450,7 +1217,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -1470,7 +1237,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C6:G6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="9"/>
@@ -1491,7 +1258,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C7:G7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="9"/>
@@ -1512,7 +1279,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="9"/>
@@ -1533,7 +1300,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C9:G9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="9"/>
@@ -1554,7 +1321,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C10:G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="9"/>
@@ -1575,7 +1342,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C11:G11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="9"/>
@@ -1596,7 +1363,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C12:G12)</f>
         <v>0</v>
       </c>
       <c r="I12" s="9"/>
@@ -1617,7 +1384,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C13:G13)</f>
         <v>0</v>
       </c>
       <c r="I13" s="9"/>
@@ -1638,7 +1405,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
@@ -1659,7 +1426,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C15:G15)</f>
         <v>0</v>
       </c>
       <c r="I15" s="9"/>
@@ -1680,7 +1447,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
@@ -1701,7 +1468,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="9"/>
@@ -1717,7 +1484,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="13" t="s">
@@ -1732,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C19:G19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="13" t="s">
@@ -1747,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C20:G20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="13" t="s">
@@ -1762,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="13" t="s">
@@ -1777,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C22:G22)</f>
         <v>0</v>
       </c>
       <c r="J22" s="13" t="s">
@@ -1792,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="13" t="s">
@@ -1807,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="13" t="s">
@@ -1822,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C25:G25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="13" t="s">
@@ -1837,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="13" t="s">
@@ -1852,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C27:G27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="13" t="s">
@@ -1861,32 +1628,44 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B28" s="11">
         <v>10</v>
       </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>SUM(C28:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="9"/>
       <c r="J28" s="13" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B29" s="11">
         <v>10</v>
       </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>SUM(C29:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9"/>
       <c r="J29" s="13" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,11 +1676,11 @@
         <v>10</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C30:G30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,11 +1691,11 @@
         <v>10</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C31:G31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1926,18 +1705,12 @@
       <c r="B32" s="11">
         <v>10</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="9"/>
+        <f>SUM(C32:G32)</f>
+        <v>0</v>
+      </c>
       <c r="J32" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1947,18 +1720,12 @@
       <c r="B33" s="11">
         <v>10</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="14" t="s">
-        <v>42</v>
+        <f>SUM(C33:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1974,12 +1741,12 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C34:G34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="J34" s="14" t="s">
-        <v>43</v>
+      <c r="J34" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1995,12 +1762,12 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C35:G35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2016,12 +1783,12 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H67" si="2">SUM(C36:G36)</f>
+        <f>SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2037,42 +1804,54 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C37:G37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B38" s="11">
         <v>10</v>
       </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>48</v>
+        <f>SUM(C38:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B39" s="11">
         <v>10</v>
       </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>49</v>
+        <f>SUM(C39:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2083,11 +1862,11 @@
         <v>10</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C40:G40)</f>
         <v>0</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2098,11 +1877,11 @@
         <v>10</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C41:G41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2113,11 +1892,11 @@
         <v>10</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C42:G42)</f>
         <v>0</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2128,11 +1907,11 @@
         <v>10</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C43:G43)</f>
         <v>0</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2143,11 +1922,11 @@
         <v>10</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C44:G44)</f>
         <v>0</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2158,11 +1937,11 @@
         <v>10</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C45:G45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,11 +1952,11 @@
         <v>10</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>56</v>
+        <f>SUM(C46:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2188,11 +1967,11 @@
         <v>10</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>57</v>
+        <f>SUM(C47:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2202,18 +1981,12 @@
       <c r="B48" s="11">
         <v>10</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
       <c r="H48" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="9"/>
+        <f>SUM(C48:G48)</f>
+        <v>0</v>
+      </c>
       <c r="J48" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2223,48 +1996,54 @@
       <c r="B49" s="11">
         <v>10</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
       <c r="H49" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="9"/>
+        <f>SUM(C49:G49)</f>
+        <v>0</v>
+      </c>
       <c r="J49" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B50" s="11">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
       <c r="H50" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUM(C50:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="9"/>
       <c r="J50" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B51" s="11">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUM(C51:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="9"/>
       <c r="J51" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2275,11 +2054,11 @@
         <v>8</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C52:G52)</f>
         <v>0</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2290,11 +2069,11 @@
         <v>8</v>
       </c>
       <c r="H53" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C53:G53)</f>
         <v>0</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2305,11 +2084,11 @@
         <v>8</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C54:G54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2320,11 +2099,11 @@
         <v>8</v>
       </c>
       <c r="H55" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C55:G55)</f>
         <v>0</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2335,11 +2114,11 @@
         <v>8</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C56:G56)</f>
         <v>0</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2350,11 +2129,11 @@
         <v>8</v>
       </c>
       <c r="H57" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C57:G57)</f>
         <v>0</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2365,11 +2144,11 @@
         <v>8</v>
       </c>
       <c r="H58" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C58:G58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2380,11 +2159,11 @@
         <v>8</v>
       </c>
       <c r="H59" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C59:G59)</f>
         <v>0</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2395,11 +2174,11 @@
         <v>8</v>
       </c>
       <c r="H60" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C60:G60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2409,18 +2188,12 @@
       <c r="B61" s="11">
         <v>8</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
       <c r="H61" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="9"/>
+        <f>SUM(C61:G61)</f>
+        <v>0</v>
+      </c>
       <c r="J61" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2430,18 +2203,12 @@
       <c r="B62" s="11">
         <v>8</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
       <c r="H62" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="9"/>
+        <f>SUM(C62:G62)</f>
+        <v>0</v>
+      </c>
       <c r="J62" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2457,12 +2224,12 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C63:G63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2478,12 +2245,12 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C64:G64)</f>
         <v>0</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2499,12 +2266,12 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C65:G65)</f>
         <v>0</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2520,12 +2287,12 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C66:G66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2541,12 +2308,12 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C67:G67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2554,7 +2321,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2562,12 +2329,12 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="8">
-        <f t="shared" ref="H68:H71" si="3">SUM(C68:G68)</f>
+        <f>SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2575,7 +2342,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2583,12 +2350,12 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C69:G69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2604,12 +2371,12 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C70:G70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2625,12 +2392,12 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C71:G71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2646,12 +2413,12 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="8">
-        <f t="shared" ref="H72:H107" si="4">SUM(C72:G72)</f>
+        <f>SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="9"/>
-      <c r="J72" s="13" t="s">
-        <v>83</v>
+      <c r="J72" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2667,12 +2434,12 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C73:G73)</f>
         <v>0</v>
       </c>
       <c r="I73" s="9"/>
-      <c r="J73" s="13" t="s">
-        <v>84</v>
+      <c r="J73" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2688,11 +2455,12 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f>SUM(C74:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="9"/>
       <c r="J74" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2708,11 +2476,12 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f>SUM(C75:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="9"/>
       <c r="J75" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2728,11 +2497,11 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C76:G76)</f>
         <v>0</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2748,11 +2517,11 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C77:G77)</f>
         <v>0</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2768,11 +2537,11 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C78:G78)</f>
         <v>0</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2788,11 +2557,11 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C79:G79)</f>
         <v>0</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2808,11 +2577,11 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C80:G80)</f>
         <v>0</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,11 +2597,11 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C81:G81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2848,11 +2617,11 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C82:G82)</f>
         <v>0</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2868,11 +2637,11 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C83:G83)</f>
         <v>0</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2888,11 +2657,11 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C84:G84)</f>
         <v>0</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2908,11 +2677,11 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C85:G85)</f>
         <v>0</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2928,11 +2697,11 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C86:G86)</f>
         <v>0</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2948,11 +2717,11 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C87:G87)</f>
         <v>0</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2968,11 +2737,11 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C88:G88)</f>
         <v>0</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2988,11 +2757,11 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C89:G89)</f>
         <v>0</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3000,7 +2769,7 @@
         <v>60</v>
       </c>
       <c r="B90" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3011,8 +2780,8 @@
         <f>SUM(C90:G90)</f>
         <v>0</v>
       </c>
-      <c r="J90" s="14" t="s">
-        <v>143</v>
+      <c r="J90" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3020,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="B91" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3031,8 +2800,8 @@
         <f>SUM(C91:G91)</f>
         <v>0</v>
       </c>
-      <c r="J91" s="14" t="s">
-        <v>144</v>
+      <c r="J91" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3052,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3072,15 +2841,15 @@
         <v>0</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B94" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3088,19 +2857,19 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="13" t="s">
-        <v>102</v>
+        <f>SUM(C94:G94)</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B95" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3108,11 +2877,11 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="13" t="s">
-        <v>103</v>
+        <f>SUM(C95:G95)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3128,11 +2897,11 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C96:G96)</f>
         <v>0</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3148,11 +2917,11 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C97:G97)</f>
         <v>0</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3168,11 +2937,11 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C98:G98)</f>
         <v>0</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3188,11 +2957,11 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C99:G99)</f>
         <v>0</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3200,7 +2969,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3208,11 +2977,11 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C100:G100)</f>
         <v>0</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3220,7 +2989,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3228,11 +2997,11 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C101:G101)</f>
         <v>0</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3248,11 +3017,11 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C102:G102)</f>
         <v>0</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3268,11 +3037,11 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C103:G103)</f>
         <v>0</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3288,11 +3057,11 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C104:G104)</f>
         <v>0</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3308,11 +3077,11 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C105:G105)</f>
         <v>0</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3328,11 +3097,11 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C106:G106)</f>
         <v>0</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3348,11 +3117,11 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C107:G107)</f>
         <v>0</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3368,11 +3137,11 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="8">
-        <f t="shared" ref="H108:H139" si="5">SUM(C108:G108)</f>
+        <f>SUM(C108:G108)</f>
         <v>0</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3388,11 +3157,11 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="14" t="s">
-        <v>117</v>
+        <f>SUM(C109:G109)</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3408,11 +3177,11 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="14" t="s">
-        <v>118</v>
+        <f>SUM(C110:G110)</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3428,11 +3197,11 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C111:G111)</f>
         <v>0</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3448,11 +3217,11 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C112:G112)</f>
         <v>0</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3468,11 +3237,11 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C113:G113)</f>
         <v>0</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3488,11 +3257,11 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C114:G114)</f>
         <v>0</v>
       </c>
       <c r="J114" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3508,11 +3277,11 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C115:G115)</f>
         <v>0</v>
       </c>
       <c r="J115" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3528,11 +3297,11 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C116:G116)</f>
         <v>0</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3548,11 +3317,11 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C117:G117)</f>
         <v>0</v>
       </c>
       <c r="J117" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3568,11 +3337,11 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C118:G118)</f>
         <v>0</v>
       </c>
       <c r="J118" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3588,11 +3357,11 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C119:G119)</f>
         <v>0</v>
       </c>
       <c r="J119" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3608,11 +3377,11 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C120:G120)</f>
         <v>0</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3628,11 +3397,11 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C121:G121)</f>
         <v>0</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3648,11 +3417,11 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C122:G122)</f>
         <v>0</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3668,11 +3437,11 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C123:G123)</f>
         <v>0</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3688,11 +3457,11 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C124:G124)</f>
         <v>0</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3708,19 +3477,19 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C125:G125)</f>
         <v>0</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B126" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -3728,19 +3497,19 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C126:G126)</f>
         <v>0</v>
       </c>
       <c r="J126" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B127" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3748,19 +3517,19 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C127:G127)</f>
         <v>0</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B128" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3768,16 +3537,16 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C128:G128)</f>
         <v>0</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B129" s="11">
         <v>10</v>
@@ -3788,16 +3557,16 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C129:G129)</f>
         <v>0</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B130" s="11">
         <v>10</v>
@@ -3808,72 +3577,45 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(C130:G130)</f>
         <v>0</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B131" s="11">
-        <v>10</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" s="11">
-        <v>10</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B133" s="11">
-        <v>10</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="14" t="s">
-        <v>142</v>
-      </c>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="10"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="8"/>
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="10"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="8"/>
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="10"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="8"/>
+      <c r="J138" s="13"/>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
@@ -3921,7 +3663,7 @@
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="B143" s="11"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -3932,7 +3674,7 @@
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
-      <c r="B144" s="11"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -3954,7 +3696,7 @@
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="12"/>
+      <c r="B146" s="11"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -3965,7 +3707,7 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="12"/>
+      <c r="B147" s="11"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -3987,7 +3729,7 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="11"/>
+      <c r="B149" s="12"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -3998,7 +3740,7 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="11"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4020,7 +3762,7 @@
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="12"/>
+      <c r="B152" s="11"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4031,7 +3773,7 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="12"/>
+      <c r="B153" s="11"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4086,7 +3828,7 @@
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="11"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4097,7 +3839,7 @@
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="11"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4119,7 +3861,7 @@
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="12"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4130,7 +3872,7 @@
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="12"/>
+      <c r="B162" s="11"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4152,7 +3894,7 @@
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="11"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4185,7 +3927,7 @@
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="12"/>
+      <c r="B167" s="11"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -4207,7 +3949,7 @@
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="11"/>
+      <c r="B169" s="12"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -4240,7 +3982,7 @@
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="12"/>
+      <c r="B172" s="11"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -4262,7 +4004,7 @@
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="11"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -4273,7 +4015,7 @@
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="11"/>
+      <c r="B175" s="12"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -4295,7 +4037,7 @@
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="12"/>
+      <c r="B177" s="11"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -4306,7 +4048,7 @@
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="12"/>
+      <c r="B178" s="11"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -4327,37 +4069,28 @@
       <c r="J179" s="13"/>
     </row>
     <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="10"/>
-      <c r="B180" s="11"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="8"/>
-      <c r="J180" s="13"/>
     </row>
     <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="10"/>
-      <c r="B181" s="11"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="8"/>
-      <c r="J181" s="13"/>
     </row>
     <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="8"/>
-      <c r="J182" s="13"/>
     </row>
     <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="5"/>
@@ -4382,30 +4115,6 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="8"/>
-    </row>
-    <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="8"/>
-    </row>
-    <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="8"/>
-    </row>
-    <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4420,198 +4129,38 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1">
-    <cfRule type="cellIs" dxfId="38" priority="56" operator="equal">
+  <conditionalFormatting sqref="J138">
+    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
+  <conditionalFormatting sqref="J140">
+    <cfRule type="cellIs" dxfId="5" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J141">
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+  <conditionalFormatting sqref="J164:J169">
+    <cfRule type="cellIs" dxfId="4" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+  <conditionalFormatting sqref="J153">
+    <cfRule type="cellIs" dxfId="3" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+  <conditionalFormatting sqref="J149">
+    <cfRule type="cellIs" dxfId="2" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+  <conditionalFormatting sqref="J155">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J143">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J167:J172">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J152">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J30">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J158">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J181">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J29">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J43">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J39">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84:J89">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J98:J100 J102:J105">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J101">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J106">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J98:J106">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J107">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J107">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J108">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J108">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="J178">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
